--- a/database/data_to_add/re_do/Abelha_2006_tbl1.xlsx
+++ b/database/data_to_add/re_do/Abelha_2006_tbl1.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\re_do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F28F5C6-5C1E-4740-986D-8D829570E51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12381122-5495-42D9-8C37-7FDADBBE61DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="2064" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>site_name</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
   </si>
   <si>
     <t>predator_min_length</t>
@@ -283,15 +283,9 @@
     <t>percent</t>
   </si>
   <si>
-    <t>percent volume</t>
-  </si>
-  <si>
     <t>Alagados Reservoir, Paraná, Brazil</t>
   </si>
   <si>
-    <t>Reservoir</t>
-  </si>
-  <si>
     <t>quarterly</t>
   </si>
   <si>
@@ -302,6 +296,24 @@
   </si>
   <si>
     <t>standard length</t>
+  </si>
+  <si>
+    <t>data_sorted_by</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>lentic</t>
+  </si>
+  <si>
+    <t>averaged over size and date</t>
+  </si>
+  <si>
+    <t>re-entered by JSW on 2020-02-09</t>
   </si>
 </sst>
 </file>
@@ -311,19 +323,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -350,18 +356,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -376,16 +376,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -669,399 +666,408 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
+      <c r="I2" t="s">
+        <v>74</v>
       </c>
       <c r="K2">
         <v>711</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>35156</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>36161</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="R2">
+        <v>2006</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2">
-        <v>2006</v>
+        <v>67</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="4">
+        <v>65</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="3">
         <v>63.02</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>16.077999999999999</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>7.8170000000000002</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>1E-3</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="4">
         <v>0.158</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="4">
         <v>3.7480000000000002</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="4">
         <v>1.272</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="4">
         <v>0.52700000000000002</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" s="4">
         <v>1E-3</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" s="4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AO2" s="4">
         <v>2E-3</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="3">
         <v>0.05</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AR2" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="AU2" s="4">
         <v>2E-3</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="AV2" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY2" s="5">
+      <c r="AX2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY2" s="4">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="AZ2" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="BA2" s="5">
+      <c r="BA2" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC2" s="5">
+      <c r="BB2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC2" s="4">
         <v>0.78300000000000003</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BD2" s="4">
         <v>1.4830000000000001</v>
       </c>
-      <c r="BE2" s="5">
+      <c r="BE2" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="BF2" s="5">
+      <c r="BF2" s="4">
         <v>1E-3</v>
       </c>
-      <c r="BG2" s="5">
+      <c r="BG2" s="4">
         <v>0.19500000000000001</v>
       </c>
-      <c r="BH2" s="5">
+      <c r="BH2" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="BI2" s="5">
+      <c r="BI2" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="BJ2" s="5">
+      <c r="BJ2" s="4">
         <v>0.23100000000000001</v>
       </c>
-      <c r="BK2" s="5">
+      <c r="BK2" s="4">
         <v>0.66400000000000003</v>
       </c>
-      <c r="BL2" s="4">
+      <c r="BL2" s="3">
         <v>0.31</v>
       </c>
-      <c r="BM2" s="5">
+      <c r="BM2" s="4">
         <v>0.114</v>
       </c>
-      <c r="BN2" s="5">
+      <c r="BN2" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="BO2" s="5">
+      <c r="BO2" s="4">
         <v>1E-3</v>
       </c>
     </row>
